--- a/kkk.xlsx
+++ b/kkk.xlsx
@@ -1,38 +1,417 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="600" yWindow="345" windowWidth="14835" windowHeight="9120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+  <si>
+    <t>末级ID</t>
+  </si>
+  <si>
+    <t>资产类型</t>
+  </si>
+  <si>
+    <t>显示序号</t>
+  </si>
+  <si>
+    <t>目录层数</t>
+  </si>
+  <si>
+    <t>完整编号</t>
+  </si>
+  <si>
+    <t>IT资产</t>
+  </si>
+  <si>
+    <t>台式机</t>
+  </si>
+  <si>
+    <t>1|1</t>
+  </si>
+  <si>
+    <t>笔记本</t>
+  </si>
+  <si>
+    <t>1|2</t>
+  </si>
+  <si>
+    <t>组装台式机</t>
+  </si>
+  <si>
+    <t>1|1|1</t>
+  </si>
+  <si>
+    <t>品牌台式机</t>
+  </si>
+  <si>
+    <t>1|1|2</t>
+  </si>
+  <si>
+    <t>打印机</t>
+  </si>
+  <si>
+    <t>1|3</t>
+  </si>
+  <si>
+    <t>复印机</t>
+  </si>
+  <si>
+    <t>1|4</t>
+  </si>
+  <si>
+    <t>传真机</t>
+  </si>
+  <si>
+    <t>1|5</t>
+  </si>
+  <si>
+    <t>扫描仪</t>
+  </si>
+  <si>
+    <t>1|6</t>
+  </si>
+  <si>
+    <t>针式打印机</t>
+  </si>
+  <si>
+    <t>1|3|1</t>
+  </si>
+  <si>
+    <t>喷墨打印机</t>
+  </si>
+  <si>
+    <t>1|3|2</t>
+  </si>
+  <si>
+    <t>激光打印机</t>
+  </si>
+  <si>
+    <t>1|3|3</t>
+  </si>
+  <si>
+    <t>Portable Radios</t>
+  </si>
+  <si>
+    <t>电视机</t>
+  </si>
+  <si>
+    <t>1|7</t>
+  </si>
+  <si>
+    <t>网络交换机</t>
+  </si>
+  <si>
+    <t>1|8</t>
+  </si>
+  <si>
+    <t>电池</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>机箱防尘网</t>
+  </si>
+  <si>
+    <t>会议系统</t>
+  </si>
+  <si>
+    <t>1|9</t>
+  </si>
+  <si>
+    <t>音箱</t>
+  </si>
+  <si>
+    <t>机顶盒</t>
+  </si>
+  <si>
+    <t>硬盘盒</t>
+  </si>
+  <si>
+    <t>配套设备</t>
+  </si>
+  <si>
+    <t>1|10</t>
+  </si>
+  <si>
+    <t>电脑配件</t>
+  </si>
+  <si>
+    <t>硬盘</t>
+  </si>
+  <si>
+    <t>14|1</t>
+  </si>
+  <si>
+    <t>移动硬盘</t>
+  </si>
+  <si>
+    <t>14|1|1</t>
+  </si>
+  <si>
+    <t>显示器</t>
+  </si>
+  <si>
+    <t>14|2</t>
+  </si>
+  <si>
+    <t>鼠标</t>
+  </si>
+  <si>
+    <t>14|3</t>
+  </si>
+  <si>
+    <t>内存</t>
+  </si>
+  <si>
+    <t>14|4</t>
+  </si>
+  <si>
+    <t>绘图</t>
+  </si>
+  <si>
+    <t>14|5</t>
+  </si>
+  <si>
+    <t>U盘</t>
+  </si>
+  <si>
+    <t>14|6</t>
+  </si>
+  <si>
+    <t>扩音器</t>
+  </si>
+  <si>
+    <t>14|7</t>
+  </si>
+  <si>
+    <t>显卡</t>
+  </si>
+  <si>
+    <t>14|8</t>
+  </si>
+  <si>
+    <t>固态硬盘</t>
+  </si>
+  <si>
+    <t>14|1|2</t>
+  </si>
+  <si>
+    <t>电源</t>
+  </si>
+  <si>
+    <t>14|9</t>
+  </si>
+  <si>
+    <t>LCD显示器</t>
+  </si>
+  <si>
+    <t>14|2|1</t>
+  </si>
+  <si>
+    <t>存储</t>
+  </si>
+  <si>
+    <t>1|11</t>
+  </si>
+  <si>
+    <t>内置硬盘</t>
+  </si>
+  <si>
+    <t>14|1|3</t>
+  </si>
+  <si>
+    <t>交换机</t>
+  </si>
+  <si>
+    <t>1|8|1</t>
+  </si>
+  <si>
+    <t>行为管理</t>
+  </si>
+  <si>
+    <t>1|8|2</t>
+  </si>
+  <si>
+    <t>路由器</t>
+  </si>
+  <si>
+    <t>1|8|3</t>
+  </si>
+  <si>
+    <t>网关</t>
+  </si>
+  <si>
+    <t>1|8|3|1</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t>1|8|3|2</t>
+  </si>
+  <si>
+    <t>校正仪</t>
+  </si>
+  <si>
+    <t>1|10|1</t>
+  </si>
+  <si>
+    <t>验钞机</t>
+  </si>
+  <si>
+    <t>1|10|2</t>
+  </si>
+  <si>
+    <t>CRT显示器</t>
+  </si>
+  <si>
+    <t>14|2|2</t>
+  </si>
+  <si>
+    <t>螺丝刀</t>
+  </si>
+  <si>
+    <t>7|1</t>
+  </si>
+  <si>
+    <t>5号电池</t>
+  </si>
+  <si>
+    <t>5|1</t>
+  </si>
+  <si>
+    <t>9V电池</t>
+  </si>
+  <si>
+    <t>5|2</t>
+  </si>
+  <si>
+    <t>扣式电池</t>
+  </si>
+  <si>
+    <t>5|3</t>
+  </si>
+  <si>
+    <t>台式内存</t>
+  </si>
+  <si>
+    <t>14|4|1</t>
+  </si>
+  <si>
+    <t>笔记本内存</t>
+  </si>
+  <si>
+    <t>14|4|2</t>
+  </si>
+  <si>
+    <t>扩展卡</t>
+  </si>
+  <si>
+    <t>14|10</t>
+  </si>
+  <si>
+    <t>光驱</t>
+  </si>
+  <si>
+    <t>14|11</t>
+  </si>
+  <si>
+    <t>只读光驱</t>
+  </si>
+  <si>
+    <t>14|11|1</t>
+  </si>
+  <si>
+    <t>刻录光驱</t>
+  </si>
+  <si>
+    <t>14|11|2</t>
+  </si>
+  <si>
+    <t>移动光驱</t>
+  </si>
+  <si>
+    <t>14|11|3</t>
+  </si>
+  <si>
+    <t>考勤机</t>
+  </si>
+  <si>
+    <t>1|10|3</t>
+  </si>
+  <si>
+    <t>手绘板</t>
+  </si>
+  <si>
+    <t>14|5|1</t>
+  </si>
+  <si>
+    <t>手绘屏</t>
+  </si>
+  <si>
+    <t>14|5|2</t>
+  </si>
+  <si>
+    <t>不间断电源</t>
+  </si>
+  <si>
+    <t>1|10|4</t>
+  </si>
+  <si>
+    <t>桌面存储</t>
+  </si>
+  <si>
+    <t>1|11|1</t>
+  </si>
+  <si>
+    <t>笔记本硬盘</t>
+  </si>
+  <si>
+    <t>14|1|4</t>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,20 +427,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -135,6 +524,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -169,6 +559,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -344,25 +735,1323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>42</v>
       </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>121</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/kkk.xlsx
+++ b/kkk.xlsx
@@ -15959,7 +15959,11 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:AL911" totalsRowShown="0">
-  <autoFilter ref="A1:AL911"/>
+  <autoFilter ref="A1:AL911">
+    <filterColumn colId="20">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:AK911">
     <sortCondition ref="F1:F911"/>
   </sortState>
@@ -16312,8 +16316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V426" sqref="V426"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E915" sqref="E915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16470,7 +16474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>228</v>
       </c>
@@ -16559,7 +16563,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>469</v>
       </c>
@@ -16651,7 +16655,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>455</v>
       </c>
@@ -16752,7 +16756,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>386</v>
       </c>
@@ -16841,7 +16845,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>388</v>
       </c>
@@ -16942,7 +16946,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>389</v>
       </c>
@@ -17031,7 +17035,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>387</v>
       </c>
@@ -17132,7 +17136,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>456</v>
       </c>
@@ -17233,7 +17237,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>864</v>
       </c>
@@ -17334,7 +17338,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>393</v>
       </c>
@@ -17435,7 +17439,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>294</v>
       </c>
@@ -17530,7 +17534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>295</v>
       </c>
@@ -17625,7 +17629,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>161</v>
       </c>
@@ -17720,7 +17724,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>163</v>
       </c>
@@ -17812,7 +17816,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>166</v>
       </c>
@@ -18002,7 +18006,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>600</v>
       </c>
@@ -18097,7 +18101,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>165</v>
       </c>
@@ -18186,7 +18190,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>602</v>
       </c>
@@ -18281,7 +18285,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>164</v>
       </c>
@@ -18373,7 +18377,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>167</v>
       </c>
@@ -18465,7 +18469,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>168</v>
       </c>
@@ -18557,7 +18561,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>169</v>
       </c>
@@ -18649,7 +18653,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>170</v>
       </c>
@@ -18830,7 +18834,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>734</v>
       </c>
@@ -18934,7 +18938,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>754</v>
       </c>
@@ -19029,7 +19033,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>832</v>
       </c>
@@ -19216,7 +19220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>513</v>
       </c>
@@ -19320,7 +19324,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>676</v>
       </c>
@@ -19424,7 +19428,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>753</v>
       </c>
@@ -19519,7 +19523,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>892</v>
       </c>
@@ -19614,7 +19618,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>764</v>
       </c>
@@ -19709,7 +19713,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>698</v>
       </c>
@@ -19813,7 +19817,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>338</v>
       </c>
@@ -19905,7 +19909,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>334</v>
       </c>
@@ -20080,7 +20084,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>399</v>
       </c>
@@ -20169,7 +20173,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>400</v>
       </c>
@@ -20270,7 +20274,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>401</v>
       </c>
@@ -20359,7 +20363,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>402</v>
       </c>
@@ -20451,7 +20455,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>403</v>
       </c>
@@ -20552,7 +20556,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>404</v>
       </c>
@@ -20647,7 +20651,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>405</v>
       </c>
@@ -20736,7 +20740,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>407</v>
       </c>
@@ -20825,7 +20829,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>408</v>
       </c>
@@ -20914,7 +20918,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>921</v>
       </c>
@@ -21012,7 +21016,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>409</v>
       </c>
@@ -21101,7 +21105,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>410</v>
       </c>
@@ -21190,7 +21194,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>411</v>
       </c>
@@ -21291,7 +21295,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>684</v>
       </c>
@@ -21389,7 +21393,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>591</v>
       </c>
@@ -21490,7 +21494,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>574</v>
       </c>
@@ -21591,7 +21595,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>584</v>
       </c>
@@ -21680,7 +21684,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>579</v>
       </c>
@@ -21781,7 +21785,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>542</v>
       </c>
@@ -21882,7 +21886,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>505</v>
       </c>
@@ -21980,7 +21984,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>447</v>
       </c>
@@ -22081,7 +22085,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>559</v>
       </c>
@@ -22182,7 +22186,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>445</v>
       </c>
@@ -22286,7 +22290,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>556</v>
       </c>
@@ -22387,7 +22391,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>551</v>
       </c>
@@ -22482,7 +22486,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>547</v>
       </c>
@@ -22583,7 +22587,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>611</v>
       </c>
@@ -22672,7 +22676,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>504</v>
       </c>
@@ -22761,7 +22765,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>503</v>
       </c>
@@ -22853,7 +22857,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>444</v>
       </c>
@@ -22957,7 +22961,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>453</v>
       </c>
@@ -23061,7 +23065,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>452</v>
       </c>
@@ -23165,7 +23169,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>443</v>
       </c>
@@ -23269,7 +23273,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>439</v>
       </c>
@@ -23370,7 +23374,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>438</v>
       </c>
@@ -23471,7 +23475,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>437</v>
       </c>
@@ -23575,7 +23579,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>459</v>
       </c>
@@ -23664,7 +23668,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>446</v>
       </c>
@@ -23765,7 +23769,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>440</v>
       </c>
@@ -23869,7 +23873,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>433</v>
       </c>
@@ -23970,7 +23974,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>460</v>
       </c>
@@ -24071,7 +24075,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>429</v>
       </c>
@@ -24169,7 +24173,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>461</v>
       </c>
@@ -24261,7 +24265,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>406</v>
       </c>
@@ -24350,7 +24354,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>431</v>
       </c>
@@ -24451,7 +24455,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>430</v>
       </c>
@@ -24552,7 +24556,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>442</v>
       </c>
@@ -24656,7 +24660,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>441</v>
       </c>
@@ -24760,7 +24764,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>458</v>
       </c>
@@ -24861,7 +24865,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>454</v>
       </c>
@@ -24962,7 +24966,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>428</v>
       </c>
@@ -25057,7 +25061,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>432</v>
       </c>
@@ -25158,7 +25162,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>814</v>
       </c>
@@ -25247,7 +25251,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>800</v>
       </c>
@@ -25348,7 +25352,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>887</v>
       </c>
@@ -25440,7 +25444,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>912</v>
       </c>
@@ -25541,7 +25545,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>833</v>
       </c>
@@ -25642,7 +25646,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>291</v>
       </c>
@@ -25740,7 +25744,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>631</v>
       </c>
@@ -25829,7 +25833,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>394</v>
       </c>
@@ -25918,7 +25922,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>629</v>
       </c>
@@ -26007,7 +26011,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>395</v>
       </c>
@@ -26096,7 +26100,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>533</v>
       </c>
@@ -26194,7 +26198,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>502</v>
       </c>
@@ -26286,7 +26290,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>628</v>
       </c>
@@ -26378,7 +26382,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>801</v>
       </c>
@@ -26467,7 +26471,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>609</v>
       </c>
@@ -26568,7 +26572,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>608</v>
       </c>
@@ -26669,7 +26673,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>873</v>
       </c>
@@ -26770,7 +26774,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>418</v>
       </c>
@@ -26865,7 +26869,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>419</v>
       </c>
@@ -26960,7 +26964,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>448</v>
       </c>
@@ -27064,7 +27068,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>449</v>
       </c>
@@ -27168,7 +27172,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>420</v>
       </c>
@@ -27263,7 +27267,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>435</v>
       </c>
@@ -27355,7 +27359,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>626</v>
       </c>
@@ -27444,7 +27448,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>627</v>
       </c>
@@ -27533,7 +27537,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>630</v>
       </c>
@@ -27622,7 +27626,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>802</v>
       </c>
@@ -27711,7 +27715,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>803</v>
       </c>
@@ -27800,7 +27804,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>804</v>
       </c>
@@ -27889,7 +27893,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>805</v>
       </c>
@@ -27978,7 +27982,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>806</v>
       </c>
@@ -28067,7 +28071,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>807</v>
       </c>
@@ -28156,7 +28160,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>808</v>
       </c>
@@ -28245,7 +28249,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>809</v>
       </c>
@@ -28334,7 +28338,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>810</v>
       </c>
@@ -28423,7 +28427,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>811</v>
       </c>
@@ -28512,7 +28516,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>812</v>
       </c>
@@ -28601,7 +28605,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>813</v>
       </c>
@@ -28690,7 +28694,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>815</v>
       </c>
@@ -28782,7 +28786,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>816</v>
       </c>
@@ -28874,7 +28878,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>817</v>
       </c>
@@ -28966,7 +28970,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>818</v>
       </c>
@@ -29058,7 +29062,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>819</v>
       </c>
@@ -29150,7 +29154,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>375</v>
       </c>
@@ -29239,7 +29243,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>376</v>
       </c>
@@ -29340,7 +29344,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>379</v>
       </c>
@@ -29429,7 +29433,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>377</v>
       </c>
@@ -29518,7 +29522,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>378</v>
       </c>
@@ -29607,7 +29611,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>162</v>
       </c>
@@ -29702,7 +29706,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>499</v>
       </c>
@@ -29806,7 +29810,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>497</v>
       </c>
@@ -29910,7 +29914,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>488</v>
       </c>
@@ -30014,7 +30018,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>500</v>
       </c>
@@ -30118,7 +30122,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>496</v>
       </c>
@@ -30222,7 +30226,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>483</v>
       </c>
@@ -30326,7 +30330,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>482</v>
       </c>
@@ -30430,7 +30434,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>264</v>
       </c>
@@ -30534,7 +30538,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>479</v>
       </c>
@@ -30638,7 +30642,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>481</v>
       </c>
@@ -30742,7 +30746,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>485</v>
       </c>
@@ -30846,7 +30850,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>480</v>
       </c>
@@ -30947,7 +30951,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>484</v>
       </c>
@@ -31051,7 +31055,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>494</v>
       </c>
@@ -31152,7 +31156,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>495</v>
       </c>
@@ -31253,7 +31257,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>501</v>
       </c>
@@ -31354,7 +31358,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>493</v>
       </c>
@@ -31455,7 +31459,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>709</v>
       </c>
@@ -31550,7 +31554,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>705</v>
       </c>
@@ -31645,7 +31649,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>704</v>
       </c>
@@ -31740,7 +31744,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>514</v>
       </c>
@@ -31844,7 +31848,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>517</v>
       </c>
@@ -31948,7 +31952,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>519</v>
       </c>
@@ -32052,7 +32056,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>521</v>
       </c>
@@ -32156,7 +32160,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>523</v>
       </c>
@@ -32257,7 +32261,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>525</v>
       </c>
@@ -32358,7 +32362,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>527</v>
       </c>
@@ -32450,7 +32454,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>528</v>
       </c>
@@ -32545,7 +32549,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>529</v>
       </c>
@@ -32646,7 +32650,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>530</v>
       </c>
@@ -32741,7 +32745,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>532</v>
       </c>
@@ -32839,7 +32843,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>535</v>
       </c>
@@ -32940,7 +32944,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>538</v>
       </c>
@@ -33041,7 +33045,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>541</v>
       </c>
@@ -33142,7 +33146,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>544</v>
       </c>
@@ -33243,7 +33247,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>548</v>
       </c>
@@ -33344,7 +33348,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>549</v>
       </c>
@@ -33448,7 +33452,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>552</v>
       </c>
@@ -33549,7 +33553,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>553</v>
       </c>
@@ -33650,7 +33654,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>554</v>
       </c>
@@ -33751,7 +33755,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>555</v>
       </c>
@@ -33852,7 +33856,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>557</v>
       </c>
@@ -33953,7 +33957,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>558</v>
       </c>
@@ -34054,7 +34058,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>560</v>
       </c>
@@ -34155,7 +34159,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>561</v>
       </c>
@@ -34256,7 +34260,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>564</v>
       </c>
@@ -34357,7 +34361,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>570</v>
       </c>
@@ -34458,7 +34462,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>572</v>
       </c>
@@ -34556,7 +34560,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>573</v>
       </c>
@@ -34654,7 +34658,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>575</v>
       </c>
@@ -34755,7 +34759,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>576</v>
       </c>
@@ -34856,7 +34860,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>577</v>
       </c>
@@ -34957,7 +34961,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>580</v>
       </c>
@@ -35058,7 +35062,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>581</v>
       </c>
@@ -35159,7 +35163,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>583</v>
       </c>
@@ -35257,7 +35261,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>589</v>
       </c>
@@ -35358,7 +35362,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>592</v>
       </c>
@@ -35459,7 +35463,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>593</v>
       </c>
@@ -35560,7 +35564,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>598</v>
       </c>
@@ -35661,7 +35665,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>599</v>
       </c>
@@ -35762,7 +35766,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>607</v>
       </c>
@@ -35857,7 +35861,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="202" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>612</v>
       </c>
@@ -35961,7 +35965,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="203" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>613</v>
       </c>
@@ -36065,7 +36069,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="204" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>614</v>
       </c>
@@ -36160,7 +36164,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>615</v>
       </c>
@@ -36264,7 +36268,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>616</v>
       </c>
@@ -36368,7 +36372,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>702</v>
       </c>
@@ -36463,7 +36467,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>644</v>
       </c>
@@ -36561,7 +36565,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>655</v>
       </c>
@@ -36653,7 +36657,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>667</v>
       </c>
@@ -36754,7 +36758,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>668</v>
       </c>
@@ -36858,7 +36862,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="212" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>669</v>
       </c>
@@ -36962,7 +36966,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>670</v>
       </c>
@@ -37066,7 +37070,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>671</v>
       </c>
@@ -37170,7 +37174,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>672</v>
       </c>
@@ -37274,7 +37278,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>674</v>
       </c>
@@ -37378,7 +37382,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>675</v>
       </c>
@@ -37485,7 +37489,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>673</v>
       </c>
@@ -37586,7 +37590,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>685</v>
       </c>
@@ -37693,7 +37697,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>686</v>
       </c>
@@ -37782,7 +37786,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>689</v>
       </c>
@@ -37877,7 +37881,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>690</v>
       </c>
@@ -37978,7 +37982,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>691</v>
       </c>
@@ -38085,7 +38089,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>714</v>
       </c>
@@ -38180,7 +38184,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>730</v>
       </c>
@@ -38281,7 +38285,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>715</v>
       </c>
@@ -38376,7 +38380,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>716</v>
       </c>
@@ -38471,7 +38475,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>717</v>
       </c>
@@ -38566,7 +38570,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>720</v>
       </c>
@@ -38661,7 +38665,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>712</v>
       </c>
@@ -38756,7 +38760,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>713</v>
       </c>
@@ -38848,7 +38852,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>731</v>
       </c>
@@ -38943,7 +38947,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>732</v>
       </c>
@@ -39038,7 +39042,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>738</v>
       </c>
@@ -39142,7 +39146,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>742</v>
       </c>
@@ -39237,7 +39241,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>743</v>
       </c>
@@ -39332,7 +39336,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="237" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>748</v>
       </c>
@@ -39430,7 +39434,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="238" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>756</v>
       </c>
@@ -39525,7 +39529,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>762</v>
       </c>
@@ -39620,7 +39624,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="240" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>767</v>
       </c>
@@ -39715,7 +39719,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>768</v>
       </c>
@@ -39810,7 +39814,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>770</v>
       </c>
@@ -39914,7 +39918,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>776</v>
       </c>
@@ -40003,7 +40007,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>791</v>
       </c>
@@ -40104,7 +40108,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>793</v>
       </c>
@@ -40199,7 +40203,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>794</v>
       </c>
@@ -40300,7 +40304,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>821</v>
       </c>
@@ -40392,7 +40396,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>822</v>
       </c>
@@ -40484,7 +40488,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>824</v>
       </c>
@@ -40585,7 +40589,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>827</v>
       </c>
@@ -40686,7 +40690,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>828</v>
       </c>
@@ -40787,7 +40791,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>830</v>
       </c>
@@ -40888,7 +40892,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>834</v>
       </c>
@@ -40989,7 +40993,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="254" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>835</v>
       </c>
@@ -41081,7 +41085,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="255" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>838</v>
       </c>
@@ -41182,7 +41186,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="256" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>844</v>
       </c>
@@ -41277,7 +41281,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="257" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>863</v>
       </c>
@@ -41378,7 +41382,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="258" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>867</v>
       </c>
@@ -41479,7 +41483,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="259" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>871</v>
       </c>
@@ -41580,7 +41584,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="260" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>872</v>
       </c>
@@ -41681,7 +41685,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="261" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>874</v>
       </c>
@@ -41782,7 +41786,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="262" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>875</v>
       </c>
@@ -41883,7 +41887,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="263" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>877</v>
       </c>
@@ -41981,7 +41985,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="264" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>880</v>
       </c>
@@ -42082,7 +42086,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="265" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>881</v>
       </c>
@@ -42177,7 +42181,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="266" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>886</v>
       </c>
@@ -42281,7 +42285,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="267" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>888</v>
       </c>
@@ -42376,7 +42380,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="268" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>891</v>
       </c>
@@ -42480,7 +42484,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="269" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>894</v>
       </c>
@@ -42584,7 +42588,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="270" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>898</v>
       </c>
@@ -42685,7 +42689,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="271" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>899</v>
       </c>
@@ -42786,7 +42790,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="272" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>900</v>
       </c>
@@ -42890,7 +42894,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="273" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>913</v>
       </c>
@@ -42982,7 +42986,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="274" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>915</v>
       </c>
@@ -43074,7 +43078,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="275" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>531</v>
       </c>
@@ -43172,7 +43176,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="276" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>534</v>
       </c>
@@ -43273,7 +43277,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="277" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>539</v>
       </c>
@@ -43374,7 +43378,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="278" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>540</v>
       </c>
@@ -43475,7 +43479,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="279" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>550</v>
       </c>
@@ -43564,7 +43568,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="280" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>582</v>
       </c>
@@ -43665,7 +43669,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="281" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>590</v>
       </c>
@@ -43766,7 +43770,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="282" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>637</v>
       </c>
@@ -43861,7 +43865,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="283" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>648</v>
       </c>
@@ -43956,7 +43960,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="284" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>649</v>
       </c>
@@ -44051,7 +44055,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="285" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>650</v>
       </c>
@@ -44146,7 +44150,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="286" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>652</v>
       </c>
@@ -44250,7 +44254,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="287" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>653</v>
       </c>
@@ -44354,7 +44358,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="288" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>693</v>
       </c>
@@ -44455,7 +44459,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="289" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>696</v>
       </c>
@@ -44559,7 +44563,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="290" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>718</v>
       </c>
@@ -44654,7 +44658,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="291" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>719</v>
       </c>
@@ -44749,7 +44753,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="292" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>721</v>
       </c>
@@ -44853,7 +44857,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="293" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>722</v>
       </c>
@@ -44957,7 +44961,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="294" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>741</v>
       </c>
@@ -45055,7 +45059,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="295" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>744</v>
       </c>
@@ -45150,7 +45154,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="296" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>745</v>
       </c>
@@ -45245,7 +45249,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="297" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>746</v>
       </c>
@@ -45349,7 +45353,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="298" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>765</v>
       </c>
@@ -45444,7 +45448,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="299" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>772</v>
       </c>
@@ -45548,7 +45552,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="300" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>779</v>
       </c>
@@ -45652,7 +45656,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="301" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>780</v>
       </c>
@@ -45756,7 +45760,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="302" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>782</v>
       </c>
@@ -45860,7 +45864,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="303" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>783</v>
       </c>
@@ -45964,7 +45968,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="304" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>790</v>
       </c>
@@ -46068,7 +46072,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="305" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>792</v>
       </c>
@@ -46169,7 +46173,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="306" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>847</v>
       </c>
@@ -46270,7 +46274,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="307" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>858</v>
       </c>
@@ -46362,7 +46366,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="308" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>869</v>
       </c>
@@ -46457,7 +46461,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="309" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>879</v>
       </c>
@@ -46549,7 +46553,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="310" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>896</v>
       </c>
@@ -46650,7 +46654,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="311" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>641</v>
       </c>
@@ -46754,7 +46758,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="312" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>642</v>
       </c>
@@ -46858,7 +46862,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="313" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>492</v>
       </c>
@@ -46962,7 +46966,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="314" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>491</v>
       </c>
@@ -47066,7 +47070,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="315" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>486</v>
       </c>
@@ -47170,7 +47174,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="316" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>490</v>
       </c>
@@ -47274,7 +47278,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="317" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>489</v>
       </c>
@@ -47375,7 +47379,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="318" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>703</v>
       </c>
@@ -47470,7 +47474,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="319" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>585</v>
       </c>
@@ -47574,7 +47578,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="320" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>587</v>
       </c>
@@ -47678,7 +47682,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="321" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>588</v>
       </c>
@@ -47782,7 +47786,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="322" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>606</v>
       </c>
@@ -47877,7 +47881,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="323" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>633</v>
       </c>
@@ -47972,7 +47976,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="324" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>638</v>
       </c>
@@ -48076,7 +48080,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="325" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>640</v>
       </c>
@@ -48180,7 +48184,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="326" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>701</v>
       </c>
@@ -48275,7 +48279,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="327" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>700</v>
       </c>
@@ -48370,7 +48374,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="328" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>697</v>
       </c>
@@ -48471,7 +48475,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="329" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>643</v>
       </c>
@@ -48575,7 +48579,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="330" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>646</v>
       </c>
@@ -48679,7 +48683,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="331" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>647</v>
       </c>
@@ -48783,7 +48787,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="332" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>692</v>
       </c>
@@ -48875,7 +48879,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="333" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>694</v>
       </c>
@@ -48967,7 +48971,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="334" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>695</v>
       </c>
@@ -49062,7 +49066,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="335" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>194</v>
       </c>
@@ -49160,7 +49164,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="336" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>723</v>
       </c>
@@ -49255,7 +49259,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="337" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>724</v>
       </c>
@@ -49350,7 +49354,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="338" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>725</v>
       </c>
@@ -49448,7 +49452,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="339" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>739</v>
       </c>
@@ -49543,7 +49547,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="340" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>766</v>
       </c>
@@ -49638,7 +49642,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="341" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>769</v>
       </c>
@@ -49742,7 +49746,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="342" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>771</v>
       </c>
@@ -49846,7 +49850,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="343" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>774</v>
       </c>
@@ -49950,7 +49954,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="344" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>775</v>
       </c>
@@ -50054,7 +50058,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="345" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>777</v>
       </c>
@@ -50158,7 +50162,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="346" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>778</v>
       </c>
@@ -50262,7 +50266,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="347" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347">
         <v>781</v>
       </c>
@@ -50366,7 +50370,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="348" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>784</v>
       </c>
@@ -50470,7 +50474,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="349" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349">
         <v>785</v>
       </c>
@@ -50574,7 +50578,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="350" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350">
         <v>786</v>
       </c>
@@ -50678,7 +50682,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="351" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351">
         <v>787</v>
       </c>
@@ -50782,7 +50786,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="352" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>788</v>
       </c>
@@ -50886,7 +50890,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="353" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>789</v>
       </c>
@@ -50990,7 +50994,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="354" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>857</v>
       </c>
@@ -51079,7 +51083,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="355" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>859</v>
       </c>
@@ -51180,7 +51184,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="356" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>861</v>
       </c>
@@ -51281,7 +51285,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="357" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>865</v>
       </c>
@@ -51382,7 +51386,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="358" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358">
         <v>866</v>
       </c>
@@ -51471,7 +51475,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="359" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>868</v>
       </c>
@@ -51566,7 +51570,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="360" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A360">
         <v>878</v>
       </c>
@@ -51667,7 +51671,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="361" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361">
         <v>883</v>
       </c>
@@ -51762,7 +51766,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="362" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362">
         <v>884</v>
       </c>
@@ -51866,7 +51870,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="363" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363">
         <v>895</v>
       </c>
@@ -51958,7 +51962,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="364" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>625</v>
       </c>
@@ -52059,7 +52063,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="365" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>870</v>
       </c>
@@ -52160,7 +52164,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="366" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>296</v>
       </c>
@@ -52255,7 +52259,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="367" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>346</v>
       </c>
@@ -52359,7 +52363,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="368" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A368">
         <v>597</v>
       </c>
@@ -52454,7 +52458,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="369" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>518</v>
       </c>
@@ -52555,7 +52559,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="370" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A370">
         <v>522</v>
       </c>
@@ -52656,7 +52660,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="371" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A371">
         <v>798</v>
       </c>
@@ -52754,7 +52758,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="372" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A372">
         <v>710</v>
       </c>
@@ -52852,7 +52856,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="373" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>711</v>
       </c>
@@ -52947,7 +52951,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="374" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>362</v>
       </c>
@@ -53048,7 +53052,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="375" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>508</v>
       </c>
@@ -53149,7 +53153,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="376" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376">
         <v>510</v>
       </c>
@@ -53348,7 +53352,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="378" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A378">
         <v>760</v>
       </c>
@@ -53452,7 +53456,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="379" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A379">
         <v>825</v>
       </c>
@@ -53544,7 +53548,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="380" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A380">
         <v>845</v>
       </c>
@@ -53636,7 +53640,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="381" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A381">
         <v>632</v>
       </c>
@@ -53737,7 +53741,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="382" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>634</v>
       </c>
@@ -53838,7 +53842,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="383" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>635</v>
       </c>
@@ -53933,7 +53937,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="384" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A384">
         <v>636</v>
       </c>
@@ -54031,7 +54035,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="385" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>751</v>
       </c>
@@ -54126,7 +54130,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="386" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A386">
         <v>759</v>
       </c>
@@ -54221,7 +54225,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="387" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A387">
         <v>515</v>
       </c>
@@ -54316,7 +54320,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="388" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388">
         <v>121</v>
       </c>
@@ -54408,7 +54412,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="389" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A389">
         <v>677</v>
       </c>
@@ -54512,7 +54516,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="390" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A390">
         <v>910</v>
       </c>
@@ -54711,7 +54715,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="392" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A392">
         <v>836</v>
       </c>
@@ -54803,7 +54807,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="393" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A393">
         <v>889</v>
       </c>
@@ -54895,7 +54899,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="394" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394">
         <v>536</v>
       </c>
@@ -54999,7 +55003,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="395" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A395">
         <v>755</v>
       </c>
@@ -55094,7 +55098,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="396" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A396">
         <v>464</v>
       </c>
@@ -55290,7 +55294,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="398" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A398">
         <v>122</v>
       </c>
@@ -55379,7 +55383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="399" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A399">
         <v>914</v>
       </c>
@@ -55471,7 +55475,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="400" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A400">
         <v>468</v>
       </c>
@@ -55572,7 +55576,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="401" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A401">
         <v>471</v>
       </c>
@@ -55676,7 +55680,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="402" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A402">
         <v>661</v>
       </c>
@@ -55783,7 +55787,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="403" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A403">
         <v>662</v>
       </c>
@@ -55890,7 +55894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="404" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404">
         <v>663</v>
       </c>
@@ -55997,7 +56001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="405" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A405">
         <v>222</v>
       </c>
@@ -56101,7 +56105,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="406" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A406">
         <v>664</v>
       </c>
@@ -56205,7 +56209,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="407" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A407">
         <v>890</v>
       </c>
@@ -56297,7 +56301,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="408" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A408">
         <v>906</v>
       </c>
@@ -56398,7 +56402,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="409" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A409">
         <v>911</v>
       </c>
@@ -56499,7 +56503,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="410" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A410">
         <v>182</v>
       </c>
@@ -56597,7 +56601,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="411" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A411">
         <v>247</v>
       </c>
@@ -56698,7 +56702,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="412" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A412">
         <v>487</v>
       </c>
@@ -56799,7 +56803,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="413" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A413">
         <v>678</v>
       </c>
@@ -56903,7 +56907,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="414" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A414">
         <v>417</v>
       </c>
@@ -56995,7 +56999,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="415" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A415">
         <v>733</v>
       </c>
@@ -57099,7 +57103,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="416" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A416">
         <v>763</v>
       </c>
@@ -57194,7 +57198,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="417" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A417">
         <v>829</v>
       </c>
@@ -57286,7 +57290,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="418" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A418">
         <v>918</v>
       </c>
@@ -57375,7 +57379,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="419" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A419">
         <v>478</v>
       </c>
@@ -57479,7 +57483,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="420" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A420">
         <v>639</v>
       </c>
@@ -57571,7 +57575,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="421" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A421">
         <v>498</v>
       </c>
@@ -57675,7 +57679,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="422" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A422">
         <v>624</v>
       </c>
@@ -57767,7 +57771,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="423" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A423">
         <v>706</v>
       </c>
@@ -57862,7 +57866,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="424" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A424">
         <v>747</v>
       </c>
@@ -57960,7 +57964,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="425" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A425">
         <v>749</v>
       </c>
@@ -58055,7 +58059,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="426" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A426">
         <v>750</v>
       </c>
@@ -58162,7 +58166,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="427" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A427">
         <v>761</v>
       </c>
@@ -58266,7 +58270,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="428" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A428">
         <v>256</v>
       </c>
@@ -58361,7 +58365,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="429" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A429">
         <v>257</v>
       </c>
@@ -58456,7 +58460,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="430" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A430">
         <v>259</v>
       </c>
@@ -58545,7 +58549,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="431" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A431">
         <v>258</v>
       </c>
@@ -58637,7 +58641,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="432" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A432">
         <v>396</v>
       </c>
@@ -58726,7 +58730,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="433" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A433">
         <v>397</v>
       </c>
@@ -58815,7 +58819,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="434" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A434">
         <v>426</v>
       </c>
@@ -58913,7 +58917,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="435" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A435">
         <v>340</v>
       </c>
@@ -59005,7 +59009,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="436" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A436">
         <v>795</v>
       </c>
@@ -59097,7 +59101,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="437" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A437">
         <v>351</v>
       </c>
@@ -59192,7 +59196,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="438" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A438">
         <v>298</v>
       </c>
@@ -59296,7 +59300,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="439" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439">
         <v>339</v>
       </c>
@@ -59385,7 +59389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="440" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440">
         <v>333</v>
       </c>
@@ -59486,7 +59490,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="441" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441">
         <v>885</v>
       </c>
@@ -59578,7 +59582,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="442" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442">
         <v>427</v>
       </c>
@@ -59673,7 +59677,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="443" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A443">
         <v>466</v>
       </c>
@@ -59771,7 +59775,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="444" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444">
         <v>467</v>
       </c>
@@ -59869,7 +59873,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="445" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A445">
         <v>424</v>
       </c>
@@ -59967,7 +59971,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="446" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A446">
         <v>897</v>
       </c>
@@ -60059,7 +60063,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="447" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447">
         <v>425</v>
       </c>
@@ -60157,7 +60161,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="448" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A448">
         <v>509</v>
       </c>
@@ -60261,7 +60265,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="449" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A449">
         <v>423</v>
       </c>
@@ -60519,7 +60523,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="452" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A452">
         <v>610</v>
       </c>
@@ -60614,7 +60618,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="453" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453">
         <v>841</v>
       </c>
@@ -60721,7 +60725,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="454" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A454">
         <v>842</v>
       </c>
@@ -60825,7 +60829,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="455" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A455">
         <v>172</v>
       </c>
@@ -60920,7 +60924,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="456" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A456">
         <v>173</v>
       </c>
@@ -61012,7 +61016,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="457" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A457">
         <v>174</v>
       </c>
@@ -61107,7 +61111,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="458" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A458">
         <v>520</v>
       </c>
@@ -61208,7 +61212,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="459" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A459">
         <v>145</v>
       </c>
@@ -61306,7 +61310,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="460" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A460">
         <v>183</v>
       </c>
@@ -61727,7 +61731,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="465" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A465">
         <v>688</v>
       </c>
@@ -61822,7 +61826,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="466" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A466">
         <v>687</v>
       </c>
@@ -61920,7 +61924,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="467" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A467">
         <v>726</v>
       </c>
@@ -62015,7 +62019,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="468" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A468">
         <v>727</v>
       </c>
@@ -62110,7 +62114,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="469" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469">
         <v>728</v>
       </c>
@@ -62205,7 +62209,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="470" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A470">
         <v>729</v>
       </c>
@@ -62386,7 +62390,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="472" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A472">
         <v>78</v>
       </c>
@@ -62475,7 +62479,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="473" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A473">
         <v>212</v>
       </c>
@@ -62573,7 +62577,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="474" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A474">
         <v>242</v>
       </c>
@@ -62680,7 +62684,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="475" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475">
         <v>266</v>
       </c>
@@ -62778,7 +62782,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="476" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A476">
         <v>360</v>
       </c>
@@ -62876,7 +62880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="477" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A477">
         <v>147</v>
       </c>
@@ -62974,7 +62978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="478" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A478">
         <v>101</v>
       </c>
@@ -63063,7 +63067,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="479" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A479">
         <v>113</v>
       </c>
@@ -63146,7 +63150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="480" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A480">
         <v>265</v>
       </c>
@@ -63244,7 +63248,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="481" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A481">
         <v>269</v>
       </c>
@@ -63345,7 +63349,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="482" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A482">
         <v>849</v>
       </c>
@@ -63440,7 +63444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="483" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A483">
         <v>578</v>
       </c>
@@ -63544,7 +63548,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="484" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A484">
         <v>919</v>
       </c>
@@ -63633,7 +63637,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="485" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A485">
         <v>181</v>
       </c>
@@ -63731,7 +63735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="486" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A486">
         <v>188</v>
       </c>
@@ -63835,7 +63839,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="487" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A487">
         <v>98</v>
       </c>
@@ -63930,7 +63934,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="488" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A488">
         <v>36</v>
       </c>
@@ -64019,7 +64023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="489" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A489">
         <v>74</v>
       </c>
@@ -64114,7 +64118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="490" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A490">
         <v>465</v>
       </c>
@@ -64215,7 +64219,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="491" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A491">
         <v>343</v>
       </c>
@@ -64313,7 +64317,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="492" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A492">
         <v>93</v>
       </c>
@@ -64411,7 +64415,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="493" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A493">
         <v>22</v>
       </c>
@@ -64503,7 +64507,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="494" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A494">
         <v>229</v>
       </c>
@@ -64607,7 +64611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="495" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A495">
         <v>26</v>
       </c>
@@ -64693,7 +64697,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="496" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A496">
         <v>156</v>
       </c>
@@ -64797,7 +64801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="497" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A497">
         <v>355</v>
       </c>
@@ -64892,7 +64896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="498" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A498">
         <v>839</v>
       </c>
@@ -64996,7 +65000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="499" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A499">
         <v>281</v>
       </c>
@@ -65100,7 +65104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="500" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A500">
         <v>59</v>
       </c>
@@ -65195,7 +65199,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="501" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A501">
         <v>356</v>
       </c>
@@ -65299,7 +65303,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="502" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A502">
         <v>41</v>
       </c>
@@ -65394,7 +65398,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="503" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A503">
         <v>253</v>
       </c>
@@ -65498,7 +65502,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="504" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A504">
         <v>109</v>
       </c>
@@ -65593,7 +65597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="505" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A505">
         <v>118</v>
       </c>
@@ -65682,7 +65686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="506" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A506">
         <v>191</v>
       </c>
@@ -65768,7 +65772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="507" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A507">
         <v>57</v>
       </c>
@@ -65854,7 +65858,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="508" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A508">
         <v>282</v>
       </c>
@@ -65952,7 +65956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="509" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A509">
         <v>273</v>
       </c>
@@ -66050,7 +66054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="510" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A510">
         <v>117</v>
       </c>
@@ -66145,7 +66149,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="511" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A511">
         <v>342</v>
       </c>
@@ -66246,7 +66250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="512" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A512">
         <v>104</v>
       </c>
@@ -66329,7 +66333,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="513" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A513">
         <v>136</v>
       </c>
@@ -66424,7 +66428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="514" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A514">
         <v>252</v>
       </c>
@@ -66525,7 +66529,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="515" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A515">
         <v>357</v>
       </c>
@@ -66623,7 +66627,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="516" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A516">
         <v>160</v>
       </c>
@@ -66721,7 +66725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="517" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A517">
         <v>58</v>
       </c>
@@ -66813,7 +66817,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="518" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A518">
         <v>68</v>
       </c>
@@ -66902,7 +66906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="519" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A519">
         <v>40</v>
       </c>
@@ -66985,7 +66989,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="520" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A520">
         <v>115</v>
       </c>
@@ -67080,7 +67084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="521" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A521">
         <v>112</v>
       </c>
@@ -67175,7 +67179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="522" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A522">
         <v>154</v>
       </c>
@@ -67279,7 +67283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="523" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A523">
         <v>125</v>
       </c>
@@ -67368,7 +67372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="524" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A524">
         <v>135</v>
       </c>
@@ -67469,7 +67473,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="525" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A525">
         <v>133</v>
       </c>
@@ -67573,7 +67577,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="526" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A526">
         <v>152</v>
       </c>
@@ -67674,7 +67678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="527" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A527">
         <v>155</v>
       </c>
@@ -67775,7 +67779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="528" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A528">
         <v>203</v>
       </c>
@@ -67873,7 +67877,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="529" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A529">
         <v>318</v>
       </c>
@@ -67980,7 +67984,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="530" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A530">
         <v>319</v>
       </c>
@@ -68078,7 +68082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="531" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A531">
         <v>320</v>
       </c>
@@ -68179,7 +68183,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="532" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A532">
         <v>656</v>
       </c>
@@ -68286,7 +68290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="533" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A533">
         <v>524</v>
       </c>
@@ -68390,7 +68394,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="534" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A534">
         <v>336</v>
       </c>
@@ -68491,7 +68495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="535" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A535">
         <v>86</v>
       </c>
@@ -68586,7 +68590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="536" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A536">
         <v>123</v>
       </c>
@@ -68681,7 +68685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="537" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A537">
         <v>31</v>
       </c>
@@ -68779,7 +68783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="538" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A538">
         <v>140</v>
       </c>
@@ -68883,7 +68887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="539" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A539">
         <v>27</v>
       </c>
@@ -68978,7 +68982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="540" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A540">
         <v>171</v>
       </c>
@@ -69174,7 +69178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="542" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A542">
         <v>89</v>
       </c>
@@ -69269,7 +69273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="543" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A543">
         <v>25</v>
       </c>
@@ -69364,7 +69368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="544" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A544">
         <v>10</v>
       </c>
@@ -69459,7 +69463,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="545" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A545">
         <v>176</v>
       </c>
@@ -69566,7 +69570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="546" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A546">
         <v>313</v>
       </c>
@@ -69673,7 +69677,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="547" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A547">
         <v>245</v>
       </c>
@@ -69768,7 +69772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="548" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A548">
         <v>15</v>
       </c>
@@ -69863,7 +69867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="549" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A549">
         <v>105</v>
       </c>
@@ -69958,7 +69962,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="550" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A550">
         <v>231</v>
       </c>
@@ -70053,7 +70057,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="551" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A551">
         <v>56</v>
       </c>
@@ -70142,7 +70146,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="552" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A552">
         <v>110</v>
       </c>
@@ -70237,7 +70241,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="553" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A553">
         <v>237</v>
       </c>
@@ -70341,7 +70345,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="554" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A554">
         <v>196</v>
       </c>
@@ -70433,7 +70437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="555" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A555">
         <v>6</v>
       </c>
@@ -70706,7 +70710,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="558" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A558">
         <v>97</v>
       </c>
@@ -70789,7 +70793,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="559" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A559">
         <v>99</v>
       </c>
@@ -70872,7 +70876,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="560" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A560">
         <v>42</v>
       </c>
@@ -70967,7 +70971,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="561" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A561">
         <v>23</v>
       </c>
@@ -71062,7 +71066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="562" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A562">
         <v>307</v>
       </c>
@@ -71163,7 +71167,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="563" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A563">
         <v>209</v>
       </c>
@@ -71270,7 +71274,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="564" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A564">
         <v>30</v>
       </c>
@@ -71365,7 +71369,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="565" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A565">
         <v>421</v>
       </c>
@@ -71469,7 +71473,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="566" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A566">
         <v>143</v>
       </c>
@@ -71573,7 +71577,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="567" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A567">
         <v>507</v>
       </c>
@@ -71677,7 +71681,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="568" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A568">
         <v>120</v>
       </c>
@@ -71766,7 +71770,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="569" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A569">
         <v>157</v>
       </c>
@@ -71870,7 +71874,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="570" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A570">
         <v>158</v>
       </c>
@@ -72063,7 +72067,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="572" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A572">
         <v>354</v>
       </c>
@@ -72167,7 +72171,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="573" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A573">
         <v>305</v>
       </c>
@@ -72265,7 +72269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="574" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A574">
         <v>28</v>
       </c>
@@ -72360,7 +72364,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="575" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A575">
         <v>37</v>
       </c>
@@ -72455,7 +72459,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="576" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A576">
         <v>312</v>
       </c>
@@ -72553,7 +72557,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="577" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A577">
         <v>315</v>
       </c>
@@ -72651,7 +72655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="578" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A578">
         <v>316</v>
       </c>
@@ -72758,7 +72762,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="579" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A579">
         <v>244</v>
       </c>
@@ -72853,7 +72857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="580" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A580">
         <v>274</v>
       </c>
@@ -72963,7 +72967,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="581" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A581">
         <v>279</v>
       </c>
@@ -73061,7 +73065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="582" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A582">
         <v>240</v>
       </c>
@@ -73165,7 +73169,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="583" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A583">
         <v>321</v>
       </c>
@@ -73269,7 +73273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="584" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A584">
         <v>562</v>
       </c>
@@ -73373,7 +73377,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="585" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A585">
         <v>571</v>
       </c>
@@ -73474,7 +73478,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="586" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A586">
         <v>185</v>
       </c>
@@ -73578,7 +73582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="587" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A587">
         <v>159</v>
       </c>
@@ -73682,7 +73686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="588" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A588">
         <v>462</v>
       </c>
@@ -73786,7 +73790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="589" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A589">
         <v>213</v>
       </c>
@@ -73890,7 +73894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="590" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A590">
         <v>19</v>
       </c>
@@ -73979,7 +73983,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="591" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A591">
         <v>205</v>
       </c>
@@ -74077,7 +74081,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="592" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A592">
         <v>208</v>
       </c>
@@ -74187,7 +74191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="593" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A593">
         <v>214</v>
       </c>
@@ -74294,7 +74298,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="594" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A594">
         <v>234</v>
       </c>
@@ -74401,7 +74405,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="595" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A595">
         <v>657</v>
       </c>
@@ -74505,7 +74509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="596" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A596">
         <v>292</v>
       </c>
@@ -74603,7 +74607,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="597" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A597">
         <v>526</v>
       </c>
@@ -74710,7 +74714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="598" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A598">
         <v>180</v>
       </c>
@@ -74811,7 +74815,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="599" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A599">
         <v>189</v>
       </c>
@@ -74903,7 +74907,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="600" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A600">
         <v>190</v>
       </c>
@@ -75001,7 +75005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="601" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A601">
         <v>84</v>
       </c>
@@ -75087,7 +75091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="602" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A602">
         <v>148</v>
       </c>
@@ -75182,7 +75186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="603" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A603">
         <v>151</v>
       </c>
@@ -75280,7 +75284,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="604" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A604">
         <v>72</v>
       </c>
@@ -75375,7 +75379,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="605" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A605">
         <v>223</v>
       </c>
@@ -75473,7 +75477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="606" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A606">
         <v>235</v>
       </c>
@@ -75574,7 +75578,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="607" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A607">
         <v>255</v>
       </c>
@@ -75678,7 +75682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="608" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A608">
         <v>206</v>
       </c>
@@ -75776,7 +75780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="609" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A609">
         <v>217</v>
       </c>
@@ -75883,7 +75887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="610" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A610">
         <v>102</v>
       </c>
@@ -75978,7 +75982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="611" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A611">
         <v>95</v>
       </c>
@@ -76073,7 +76077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="612" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A612">
         <v>463</v>
       </c>
@@ -76177,7 +76181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="613" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A613">
         <v>263</v>
       </c>
@@ -76281,7 +76285,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="614" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A614">
         <v>837</v>
       </c>
@@ -76376,7 +76380,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="615" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A615">
         <v>204</v>
       </c>
@@ -76483,7 +76487,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="616" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A616">
         <v>207</v>
       </c>
@@ -76581,7 +76585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="617" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A617">
         <v>65</v>
       </c>
@@ -76670,7 +76674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="618" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A618">
         <v>210</v>
       </c>
@@ -76777,7 +76781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="619" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A619">
         <v>260</v>
       </c>
@@ -76881,7 +76885,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="620" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A620">
         <v>285</v>
       </c>
@@ -76979,7 +76983,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="621" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A621">
         <v>262</v>
       </c>
@@ -77083,7 +77087,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="622" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A622">
         <v>267</v>
       </c>
@@ -77187,7 +77191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="623" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A623">
         <v>422</v>
       </c>
@@ -77285,7 +77289,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="624" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A624">
         <v>197</v>
       </c>
@@ -77383,7 +77387,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="625" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A625">
         <v>211</v>
       </c>
@@ -77490,7 +77494,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="626" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A626">
         <v>141</v>
       </c>
@@ -77591,7 +77595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="627" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A627">
         <v>142</v>
       </c>
@@ -77689,7 +77693,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="628" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A628">
         <v>241</v>
       </c>
@@ -77793,7 +77797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="629" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A629">
         <v>350</v>
       </c>
@@ -77900,7 +77904,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="630" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A630">
         <v>114</v>
       </c>
@@ -77995,7 +77999,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="631" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A631">
         <v>303</v>
       </c>
@@ -78093,7 +78097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="632" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A632">
         <v>69</v>
       </c>
@@ -78194,7 +78198,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="633" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A633">
         <v>87</v>
       </c>
@@ -78289,7 +78293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="634" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A634">
         <v>226</v>
       </c>
@@ -78396,7 +78400,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="635" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A635">
         <v>337</v>
       </c>
@@ -78503,7 +78507,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="636" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A636">
         <v>323</v>
       </c>
@@ -78610,7 +78614,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="637" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A637">
         <v>73</v>
       </c>
@@ -78705,7 +78709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="638" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A638">
         <v>107</v>
       </c>
@@ -78800,7 +78804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="639" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A639">
         <v>33</v>
       </c>
@@ -78883,7 +78887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="640" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A640">
         <v>108</v>
       </c>
@@ -78978,7 +78982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="641" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A641">
         <v>335</v>
       </c>
@@ -79085,7 +79089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="642" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A642">
         <v>193</v>
       </c>
@@ -79189,7 +79193,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="643" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A643">
         <v>414</v>
       </c>
@@ -79296,7 +79300,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="644" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A644">
         <v>130</v>
       </c>
@@ -79406,7 +79410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="645" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A645">
         <v>67</v>
       </c>
@@ -79501,7 +79505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="646" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A646">
         <v>70</v>
       </c>
@@ -79596,7 +79600,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="647" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A647">
         <v>13</v>
       </c>
@@ -79688,7 +79692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="648" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A648">
         <v>254</v>
       </c>
@@ -79792,7 +79796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="649" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A649">
         <v>63</v>
       </c>
@@ -79887,7 +79891,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="650" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A650">
         <v>14</v>
       </c>
@@ -79982,7 +79986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="651" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A651">
         <v>61</v>
       </c>
@@ -80077,7 +80081,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="652" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A652">
         <v>9</v>
       </c>
@@ -80166,7 +80170,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="653" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A653">
         <v>233</v>
       </c>
@@ -80270,7 +80274,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="654" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A654">
         <v>436</v>
       </c>
@@ -80374,7 +80378,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="655" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A655">
         <v>268</v>
       </c>
@@ -80481,7 +80485,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="656" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A656">
         <v>246</v>
       </c>
@@ -80585,7 +80589,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="657" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A657">
         <v>327</v>
       </c>
@@ -80692,7 +80696,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="658" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A658">
         <v>352</v>
       </c>
@@ -80799,7 +80803,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="659" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A659">
         <v>66</v>
       </c>
@@ -80894,7 +80898,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="660" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A660">
         <v>16</v>
       </c>
@@ -80989,7 +80993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="661" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A661">
         <v>232</v>
       </c>
@@ -81093,7 +81097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="662" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A662">
         <v>43</v>
       </c>
@@ -81191,7 +81195,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="663" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A663">
         <v>62</v>
       </c>
@@ -81286,7 +81290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="664" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A664">
         <v>128</v>
       </c>
@@ -81384,7 +81388,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="665" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A665">
         <v>243</v>
       </c>
@@ -81488,7 +81492,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="666" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A666">
         <v>324</v>
       </c>
@@ -81595,7 +81599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="667" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A667">
         <v>238</v>
       </c>
@@ -81699,7 +81703,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="668" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A668">
         <v>236</v>
       </c>
@@ -81797,7 +81801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="669" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A669">
         <v>38</v>
       </c>
@@ -81895,7 +81899,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="670" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A670">
         <v>457</v>
       </c>
@@ -81999,7 +82003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="671" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A671">
         <v>261</v>
       </c>
@@ -82100,7 +82104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="672" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A672">
         <v>876</v>
       </c>
@@ -82198,7 +82202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="673" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A673">
         <v>277</v>
       </c>
@@ -82302,7 +82306,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="674" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A674">
         <v>280</v>
       </c>
@@ -82400,7 +82404,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="675" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A675">
         <v>326</v>
       </c>
@@ -82501,7 +82505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="676" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A676">
         <v>328</v>
       </c>
@@ -82608,7 +82612,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="677" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A677">
         <v>329</v>
       </c>
@@ -82706,7 +82710,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="678" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A678">
         <v>330</v>
       </c>
@@ -82810,7 +82814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="679" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A679">
         <v>331</v>
       </c>
@@ -82911,7 +82915,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="680" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A680">
         <v>332</v>
       </c>
@@ -83009,7 +83013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="681" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A681">
         <v>569</v>
       </c>
@@ -83116,7 +83120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="682" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A682">
         <v>413</v>
       </c>
@@ -83223,7 +83227,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="683" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A683">
         <v>415</v>
       </c>
@@ -83318,7 +83322,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="684" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A684">
         <v>116</v>
       </c>
@@ -83413,7 +83417,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="685" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A685">
         <v>91</v>
       </c>
@@ -83514,7 +83518,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="686" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A686">
         <v>71</v>
       </c>
@@ -83600,7 +83604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="687" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A687">
         <v>416</v>
       </c>
@@ -83701,7 +83705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="688" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A688">
         <v>131</v>
       </c>
@@ -83805,7 +83809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="689" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A689">
         <v>132</v>
       </c>
@@ -83912,7 +83916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="690" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A690">
         <v>325</v>
       </c>
@@ -84019,7 +84023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="691" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A691">
         <v>29</v>
       </c>
@@ -84108,7 +84112,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="692" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A692">
         <v>90</v>
       </c>
@@ -84200,7 +84204,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="693" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A693">
         <v>119</v>
       </c>
@@ -84295,7 +84299,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="694" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A694">
         <v>64</v>
       </c>
@@ -84381,7 +84385,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="695" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A695">
         <v>177</v>
       </c>
@@ -84485,7 +84489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="696" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A696">
         <v>106</v>
       </c>
@@ -84574,7 +84578,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="697" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A697">
         <v>850</v>
       </c>
@@ -84681,7 +84685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="698" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A698">
         <v>138</v>
       </c>
@@ -84785,7 +84789,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="699" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A699">
         <v>304</v>
       </c>
@@ -84883,7 +84887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="700" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A700">
         <v>306</v>
       </c>
@@ -84981,7 +84985,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="701" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A701">
         <v>308</v>
       </c>
@@ -85079,7 +85083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="702" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A702">
         <v>309</v>
       </c>
@@ -85177,7 +85181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="703" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A703">
         <v>310</v>
       </c>
@@ -85275,7 +85279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="704" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A704">
         <v>314</v>
       </c>
@@ -85373,7 +85377,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="705" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A705">
         <v>317</v>
       </c>
@@ -85471,7 +85475,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="706" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A706">
         <v>286</v>
       </c>
@@ -85575,7 +85579,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="707" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A707">
         <v>137</v>
       </c>
@@ -85670,7 +85674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="708" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A708">
         <v>139</v>
       </c>
@@ -85765,7 +85769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="709" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A709">
         <v>271</v>
       </c>
@@ -85857,7 +85861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="710" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A710">
         <v>654</v>
       </c>
@@ -85961,7 +85965,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="711" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A711">
         <v>77</v>
       </c>
@@ -86059,7 +86063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="712" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A712">
         <v>76</v>
       </c>
@@ -86154,7 +86158,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="713" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A713">
         <v>270</v>
       </c>
@@ -86252,7 +86256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="714" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A714">
         <v>225</v>
       </c>
@@ -86350,7 +86354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="715" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A715">
         <v>618</v>
       </c>
@@ -86457,7 +86461,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="716" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A716">
         <v>621</v>
       </c>
@@ -86564,7 +86568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="717" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A717">
         <v>622</v>
       </c>
@@ -86671,7 +86675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="718" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A718">
         <v>620</v>
       </c>
@@ -86778,7 +86782,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="719" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A719">
         <v>617</v>
       </c>
@@ -86885,7 +86889,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="720" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A720">
         <v>623</v>
       </c>
@@ -86992,7 +86996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="721" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A721">
         <v>619</v>
       </c>
@@ -87099,7 +87103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="722" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A722">
         <v>192</v>
       </c>
@@ -87197,7 +87201,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="723" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A723">
         <v>293</v>
       </c>
@@ -87304,7 +87308,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="724" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A724">
         <v>54</v>
       </c>
@@ -87402,7 +87406,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="725" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A725">
         <v>55</v>
       </c>
@@ -87500,7 +87504,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="726" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A726">
         <v>81</v>
       </c>
@@ -87598,7 +87602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="727" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A727">
         <v>80</v>
       </c>
@@ -87696,7 +87700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="728" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A728">
         <v>32</v>
       </c>
@@ -87785,7 +87789,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="729" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A729">
         <v>45</v>
       </c>
@@ -87883,7 +87887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="730" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A730">
         <v>53</v>
       </c>
@@ -87972,7 +87976,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="731" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A731">
         <v>645</v>
       </c>
@@ -88079,7 +88083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="732" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A732">
         <v>49</v>
       </c>
@@ -88168,7 +88172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="733" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A733">
         <v>149</v>
       </c>
@@ -88266,7 +88270,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="734" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A734">
         <v>299</v>
       </c>
@@ -88364,7 +88368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="735" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A735">
         <v>82</v>
       </c>
@@ -88462,7 +88466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="736" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A736">
         <v>46</v>
       </c>
@@ -88551,7 +88555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="737" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A737">
         <v>83</v>
       </c>
@@ -88640,7 +88644,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="738" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A738">
         <v>434</v>
       </c>
@@ -88738,7 +88742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="739" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A739">
         <v>198</v>
       </c>
@@ -88845,7 +88849,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="740" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A740">
         <v>103</v>
       </c>
@@ -88943,7 +88947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="741" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A741">
         <v>44</v>
       </c>
@@ -89032,7 +89036,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="742" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A742">
         <v>75</v>
       </c>
@@ -89121,7 +89125,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="743" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A743">
         <v>353</v>
       </c>
@@ -89228,7 +89232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="744" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A744">
         <v>96</v>
       </c>
@@ -89317,7 +89321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="745" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A745">
         <v>300</v>
       </c>
@@ -89418,7 +89422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="746" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A746">
         <v>239</v>
       </c>
@@ -89516,7 +89520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="747" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A747">
         <v>302</v>
       </c>
@@ -89626,7 +89630,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="748" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A748">
         <v>52</v>
       </c>
@@ -89718,7 +89722,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="749" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A749">
         <v>301</v>
       </c>
@@ -89816,7 +89820,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="750" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A750">
         <v>178</v>
       </c>
@@ -89917,7 +89921,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="751" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A751">
         <v>48</v>
       </c>
@@ -90006,7 +90010,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="752" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A752">
         <v>51</v>
       </c>
@@ -90098,7 +90102,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="753" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A753">
         <v>47</v>
       </c>
@@ -90187,7 +90191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="754" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A754">
         <v>179</v>
       </c>
@@ -90285,7 +90289,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="755" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A755">
         <v>200</v>
       </c>
@@ -90383,7 +90387,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="756" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A756">
         <v>358</v>
       </c>
@@ -90481,7 +90485,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="757" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A757">
         <v>345</v>
       </c>
@@ -90588,7 +90592,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="758" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A758">
         <v>348</v>
       </c>
@@ -90781,7 +90785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="760" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A760">
         <v>290</v>
       </c>
@@ -90879,7 +90883,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="761" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A761">
         <v>341</v>
       </c>
@@ -90986,7 +90990,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="762" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A762">
         <v>227</v>
       </c>
@@ -91087,7 +91091,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="763" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A763">
         <v>511</v>
       </c>
@@ -91191,7 +91195,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="764" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A764">
         <v>512</v>
       </c>
@@ -91295,7 +91299,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="765" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A765">
         <v>543</v>
       </c>
@@ -91393,7 +91397,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="766" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A766">
         <v>594</v>
       </c>
@@ -91491,7 +91495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="767" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A767">
         <v>595</v>
       </c>
@@ -91589,7 +91593,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="768" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A768">
         <v>186</v>
       </c>
@@ -91693,7 +91697,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="769" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A769">
         <v>201</v>
       </c>
@@ -91791,7 +91795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="770" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A770">
         <v>851</v>
       </c>
@@ -91898,7 +91902,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="771" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A771">
         <v>124</v>
       </c>
@@ -91987,7 +91991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="772" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A772">
         <v>359</v>
       </c>
@@ -92094,7 +92098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="773" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A773">
         <v>659</v>
       </c>
@@ -92198,7 +92202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="774" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A774">
         <v>199</v>
       </c>
@@ -92299,7 +92303,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="775" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A775">
         <v>658</v>
       </c>
@@ -92406,7 +92410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="776" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A776">
         <v>852</v>
       </c>
@@ -92513,7 +92517,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="777" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A777">
         <v>853</v>
       </c>
@@ -92620,7 +92624,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="778" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A778">
         <v>660</v>
       </c>
@@ -92727,7 +92731,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="779" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A779">
         <v>907</v>
       </c>
@@ -92828,7 +92832,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="780" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A780">
         <v>799</v>
       </c>
@@ -92923,7 +92927,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="781" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A781">
         <v>450</v>
       </c>
@@ -93024,7 +93028,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="782" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A782">
         <v>909</v>
       </c>
@@ -93125,7 +93129,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="783" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A783">
         <v>831</v>
       </c>
@@ -93217,7 +93221,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="784" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A784">
         <v>451</v>
       </c>
@@ -93318,7 +93322,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="785" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A785">
         <v>908</v>
       </c>
@@ -93505,7 +93509,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="787" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A787">
         <v>920</v>
       </c>
@@ -93591,7 +93595,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="788" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A788">
         <v>854</v>
       </c>
@@ -93695,7 +93699,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="789" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A789">
         <v>736</v>
       </c>
@@ -93787,7 +93791,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="790" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A790">
         <v>215</v>
       </c>
@@ -93888,7 +93892,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="791" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A791">
         <v>216</v>
       </c>
@@ -93989,7 +93993,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="792" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A792">
         <v>218</v>
       </c>
@@ -94090,7 +94094,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="793" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A793">
         <v>219</v>
       </c>
@@ -94191,7 +94195,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="794" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A794">
         <v>220</v>
       </c>
@@ -94292,7 +94296,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="795" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A795">
         <v>221</v>
       </c>
@@ -94565,7 +94569,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="798" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A798">
         <v>680</v>
       </c>
@@ -94669,7 +94673,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="799" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A799">
         <v>681</v>
       </c>
@@ -94773,7 +94777,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="800" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A800">
         <v>682</v>
       </c>
@@ -94871,7 +94875,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="801" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A801">
         <v>757</v>
       </c>
@@ -94975,7 +94979,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="802" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A802">
         <v>758</v>
       </c>
@@ -95079,7 +95083,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="803" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A803">
         <v>797</v>
       </c>
@@ -95180,7 +95184,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="804" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A804">
         <v>843</v>
       </c>
@@ -95272,7 +95276,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="805" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A805">
         <v>275</v>
       </c>
@@ -95379,7 +95383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="806" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A806">
         <v>175</v>
       </c>
@@ -95486,7 +95490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="807" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A807">
         <v>848</v>
       </c>
@@ -95593,7 +95597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="808" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A808">
         <v>665</v>
       </c>
@@ -95700,7 +95704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="809" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A809">
         <v>666</v>
       </c>
@@ -95899,7 +95903,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="811" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A811">
         <v>601</v>
       </c>
@@ -95994,7 +95998,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="812" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A812">
         <v>516</v>
       </c>
@@ -96175,7 +96179,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="814" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A814">
         <v>297</v>
       </c>
@@ -96270,7 +96274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="815" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A815">
         <v>288</v>
       </c>
@@ -96362,7 +96366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="816" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A816">
         <v>289</v>
       </c>
@@ -96457,7 +96461,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="817" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A817">
         <v>699</v>
       </c>
@@ -96555,7 +96559,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="818" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A818">
         <v>820</v>
       </c>
@@ -96656,7 +96660,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="819" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A819">
         <v>826</v>
       </c>
@@ -96745,7 +96749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="820" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A820">
         <v>893</v>
       </c>
@@ -97246,7 +97250,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="826" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A826">
         <v>184</v>
       </c>
@@ -97581,7 +97585,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="830" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A830">
         <v>470</v>
       </c>
@@ -97676,7 +97680,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="831" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A831">
         <v>283</v>
       </c>
@@ -97771,7 +97775,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="832" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A832">
         <v>284</v>
       </c>
@@ -97866,7 +97870,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="833" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A833">
         <v>272</v>
       </c>
@@ -97970,7 +97974,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="834" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A834">
         <v>202</v>
       </c>
@@ -98068,7 +98072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="835" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A835">
         <v>796</v>
       </c>
@@ -98160,7 +98164,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="836" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A836">
         <v>537</v>
       </c>
@@ -98264,7 +98268,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="837" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A837">
         <v>679</v>
       </c>
@@ -98359,7 +98363,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="838" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A838">
         <v>707</v>
       </c>
@@ -98454,7 +98458,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="839" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A839">
         <v>708</v>
       </c>
@@ -98549,7 +98553,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="840" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A840">
         <v>737</v>
       </c>
@@ -98644,7 +98648,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="841" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A841">
         <v>740</v>
       </c>
@@ -98739,7 +98743,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="842" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A842">
         <v>752</v>
       </c>
@@ -98834,7 +98838,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="843" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A843">
         <v>773</v>
       </c>
@@ -98932,7 +98936,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="844" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A844">
         <v>846</v>
       </c>
@@ -99033,7 +99037,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="845" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A845">
         <v>860</v>
       </c>
@@ -99134,7 +99138,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="846" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A846">
         <v>882</v>
       </c>
@@ -99238,7 +99242,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="847" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A847">
         <v>916</v>
       </c>
@@ -99514,7 +99518,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="850" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A850">
         <v>134</v>
       </c>
@@ -99615,7 +99619,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="851" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A851">
         <v>855</v>
       </c>
@@ -99719,7 +99723,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="852" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A852">
         <v>856</v>
       </c>
@@ -99823,7 +99827,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="853" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A853">
         <v>111</v>
       </c>
@@ -99909,7 +99913,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="854" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A854">
         <v>153</v>
       </c>
@@ -100007,7 +100011,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="855" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A855">
         <v>224</v>
       </c>
@@ -100111,7 +100115,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="856" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A856">
         <v>5</v>
       </c>
@@ -100206,7 +100210,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="857" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A857">
         <v>735</v>
       </c>
@@ -100298,7 +100302,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="858" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A858">
         <v>823</v>
       </c>
@@ -100390,7 +100394,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="859" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A859">
         <v>398</v>
       </c>
@@ -100491,7 +100495,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="860" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A860">
         <v>412</v>
       </c>
@@ -100592,7 +100596,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="861" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A861">
         <v>195</v>
       </c>
@@ -100693,7 +100697,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="862" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A862">
         <v>683</v>
       </c>
@@ -100788,7 +100792,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="863" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A863">
         <v>383</v>
       </c>
@@ -100889,7 +100893,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="864" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A864">
         <v>382</v>
       </c>
@@ -100990,7 +100994,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="865" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A865">
         <v>384</v>
       </c>
@@ -101079,7 +101083,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="866" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A866">
         <v>385</v>
       </c>
@@ -101168,7 +101172,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="867" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A867">
         <v>390</v>
       </c>
@@ -101257,7 +101261,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="868" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A868">
         <v>391</v>
       </c>
@@ -101349,7 +101353,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="869" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A869">
         <v>392</v>
       </c>
@@ -101438,7 +101442,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="870" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A870">
         <v>380</v>
       </c>
@@ -101539,7 +101543,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="871" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A871">
         <v>381</v>
       </c>
@@ -101646,7 +101650,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="872" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A872">
         <v>476</v>
       </c>
@@ -101750,7 +101754,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="873" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A873">
         <v>475</v>
       </c>
@@ -101854,7 +101858,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="874" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A874">
         <v>474</v>
       </c>
@@ -101958,7 +101962,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="875" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A875">
         <v>473</v>
       </c>
@@ -102062,7 +102066,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="876" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A876">
         <v>472</v>
       </c>
@@ -102166,7 +102170,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="877" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A877">
         <v>477</v>
       </c>
@@ -102270,7 +102274,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="878" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A878">
         <v>545</v>
       </c>
@@ -102371,7 +102375,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="879" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A879">
         <v>566</v>
       </c>
@@ -102472,7 +102476,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="880" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A880">
         <v>567</v>
       </c>
@@ -102573,7 +102577,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="881" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A881">
         <v>862</v>
       </c>
@@ -102671,7 +102675,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="882" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A882">
         <v>586</v>
       </c>
@@ -102775,7 +102779,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="883" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A883">
         <v>651</v>
       </c>
@@ -102876,7 +102880,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="884" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A884">
         <v>363</v>
       </c>
@@ -102968,7 +102972,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="885" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A885">
         <v>364</v>
       </c>
@@ -103066,7 +103070,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="886" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A886">
         <v>365</v>
       </c>
@@ -103155,7 +103159,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="887" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A887">
         <v>366</v>
       </c>
@@ -103244,7 +103248,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="888" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A888">
         <v>367</v>
       </c>
@@ -103333,7 +103337,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="889" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A889">
         <v>368</v>
       </c>
@@ -103428,7 +103432,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="890" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A890">
         <v>369</v>
       </c>
@@ -103520,7 +103524,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="891" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A891">
         <v>370</v>
       </c>
@@ -103609,7 +103613,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="892" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A892">
         <v>371</v>
       </c>
@@ -103698,7 +103702,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="893" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A893">
         <v>372</v>
       </c>
@@ -103787,7 +103791,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="894" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A894">
         <v>373</v>
       </c>
@@ -103876,7 +103880,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="895" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A895">
         <v>374</v>
       </c>
@@ -103965,7 +103969,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="896" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A896">
         <v>565</v>
       </c>
@@ -104066,7 +104070,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="897" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A897">
         <v>546</v>
       </c>
@@ -104167,7 +104171,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="898" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A898">
         <v>568</v>
       </c>
@@ -104268,7 +104272,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="899" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A899">
         <v>506</v>
       </c>
@@ -104369,7 +104373,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="900" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A900">
         <v>922</v>
       </c>
@@ -104464,7 +104468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="901" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A901">
         <v>596</v>
       </c>
@@ -104556,7 +104560,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="902" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A902">
         <v>344</v>
       </c>
@@ -104746,7 +104750,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="904" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A904">
         <v>249</v>
       </c>
@@ -104841,7 +104845,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="905" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A905">
         <v>276</v>
       </c>
@@ -104936,7 +104940,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="906" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A906">
         <v>248</v>
       </c>
@@ -105031,7 +105035,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="907" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A907">
         <v>251</v>
       </c>
@@ -105126,7 +105130,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="908" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A908">
         <v>250</v>
       </c>
@@ -105221,7 +105225,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="909" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A909">
         <v>278</v>
       </c>
@@ -105316,7 +105320,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="910" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:38" hidden="1" x14ac:dyDescent="0.15">
       <c r="A910">
         <v>287</v>
       </c>
